--- a/Alumopt.xlsx
+++ b/Alumopt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iconf\OneDrive\Documents\VS Code\alumoptimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570BD6CF-7B57-406A-ADD0-AC6760B206B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67027C8-B8E0-4CB6-96BE-A34D3760A399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14040" yWindow="1140" windowWidth="21120" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -337,23 +337,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>300</v>
+        <v>5600</v>
       </c>
       <c r="B1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1200</v>
       </c>
@@ -361,7 +364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>400</v>
       </c>
@@ -369,12 +372,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2500</v>
       </c>
       <c r="B4">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1000</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Alumopt.xlsx
+++ b/Alumopt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iconf\OneDrive\Documents\VS Code\alumoptimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67027C8-B8E0-4CB6-96BE-A34D3760A399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45564447-83DC-45F1-977B-A1C3B4C1AD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14040" yWindow="1140" windowWidth="21120" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -340,7 +340,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -353,7 +353,7 @@
         <v>3</v>
       </c>
       <c r="D1">
-        <v>6100</v>
+        <v>5607</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -385,7 +385,7 @@
         <v>1000</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Alumopt.xlsx
+++ b/Alumopt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iconf\OneDrive\Documents\VS Code\alumoptimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67027C8-B8E0-4CB6-96BE-A34D3760A399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F881BA9-F627-4273-88D6-66621B3B7B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14040" yWindow="1140" windowWidth="21120" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -337,20 +337,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>5600</v>
+        <v>1450</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1">
         <v>6100</v>
@@ -358,7 +358,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -366,7 +366,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>400</v>
+        <v>2100</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -374,18 +374,170 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2500</v>
+        <v>900</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2100</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>900</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2675</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5200</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2400</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>200</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>700</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2100</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1600</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2100</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>800</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>500</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>600</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>500</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>500</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2100</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5950</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>500</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2400</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
